--- a/data_processed/20250807/BTCUSDVOLSURFACE_REGULARIZED_20250807.xlsx
+++ b/data_processed/20250807/BTCUSDVOLSURFACE_REGULARIZED_20250807.xlsx
@@ -524,7 +524,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>CA,BF,CS</t>
+          <t>CS,BF,CA</t>
         </is>
       </c>
     </row>
@@ -6333,7 +6333,7 @@
       </c>
       <c r="G228" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -6420,7 +6420,7 @@
       </c>
       <c r="G231" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -6785,7 +6785,7 @@
       </c>
       <c r="G244" t="inlineStr">
         <is>
-          <t>CA,BF,CS</t>
+          <t>CS,BF,CA</t>
         </is>
       </c>
     </row>
@@ -6814,7 +6814,7 @@
       </c>
       <c r="G245" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -12484,7 +12484,7 @@
       </c>
       <c r="G471" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -12542,7 +12542,7 @@
       </c>
       <c r="G473" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -12571,7 +12571,7 @@
       </c>
       <c r="G474" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -12629,7 +12629,7 @@
       </c>
       <c r="G476" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -12658,7 +12658,7 @@
       </c>
       <c r="G477" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -12745,7 +12745,7 @@
       </c>
       <c r="G480" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -18164,7 +18164,7 @@
       </c>
       <c r="G695" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -18251,7 +18251,7 @@
       </c>
       <c r="G698" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -18280,7 +18280,7 @@
       </c>
       <c r="G699" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -18309,7 +18309,7 @@
       </c>
       <c r="G700" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -33839,7 +33839,7 @@
       </c>
       <c r="G1318" t="inlineStr">
         <is>
-          <t>BF,CS</t>
+          <t>CS,BF</t>
         </is>
       </c>
     </row>
@@ -34401,7 +34401,7 @@
       </c>
       <c r="G1340" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -34430,7 +34430,7 @@
       </c>
       <c r="G1341" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -34459,7 +34459,7 @@
       </c>
       <c r="G1342" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -34604,7 +34604,7 @@
       </c>
       <c r="G1347" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -34633,7 +34633,7 @@
       </c>
       <c r="G1348" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -34712,7 +34712,7 @@
       </c>
       <c r="G1351" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -34741,7 +34741,7 @@
       </c>
       <c r="G1352" t="inlineStr">
         <is>
-          <t>BF,CS</t>
+          <t>CS,BF</t>
         </is>
       </c>
     </row>
@@ -35261,7 +35261,7 @@
       </c>
       <c r="G1372" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -35348,7 +35348,7 @@
       </c>
       <c r="G1375" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -35406,7 +35406,7 @@
       </c>
       <c r="G1377" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -35464,7 +35464,7 @@
       </c>
       <c r="G1379" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -35493,7 +35493,7 @@
       </c>
       <c r="G1380" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -35605,7 +35605,7 @@
       </c>
       <c r="G1384" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -35692,7 +35692,7 @@
       </c>
       <c r="G1387" t="inlineStr">
         <is>
-          <t>CA,BF,CS</t>
+          <t>CS,BF,CA</t>
         </is>
       </c>
     </row>
@@ -35721,7 +35721,7 @@
       </c>
       <c r="G1388" t="inlineStr">
         <is>
-          <t>BF,CS</t>
+          <t>CS,BF</t>
         </is>
       </c>
     </row>
@@ -36345,7 +36345,7 @@
       </c>
       <c r="G1412" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -36374,7 +36374,7 @@
       </c>
       <c r="G1413" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -36432,7 +36432,7 @@
       </c>
       <c r="G1415" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -37176,7 +37176,7 @@
       </c>
       <c r="G1443" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -37595,7 +37595,7 @@
       </c>
       <c r="G1458" t="inlineStr">
         <is>
-          <t>BF,CS</t>
+          <t>CS,BF</t>
         </is>
       </c>
     </row>
@@ -37765,7 +37765,7 @@
       </c>
       <c r="G1464" t="inlineStr">
         <is>
-          <t>BF,CS</t>
+          <t>CS,BF</t>
         </is>
       </c>
     </row>
@@ -40213,7 +40213,7 @@
       </c>
       <c r="G1560" t="inlineStr">
         <is>
-          <t>BF,CS</t>
+          <t>CS,BF</t>
         </is>
       </c>
     </row>
@@ -40437,7 +40437,7 @@
       </c>
       <c r="G1568" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -40466,7 +40466,7 @@
       </c>
       <c r="G1569" t="inlineStr">
         <is>
-          <t>BF,CS</t>
+          <t>CS,BF</t>
         </is>
       </c>
     </row>
@@ -40495,7 +40495,7 @@
       </c>
       <c r="G1570" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -40607,7 +40607,7 @@
       </c>
       <c r="G1574" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -40636,7 +40636,7 @@
       </c>
       <c r="G1575" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -40665,7 +40665,7 @@
       </c>
       <c r="G1576" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -43605,7 +43605,7 @@
       </c>
       <c r="G1692" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -43663,7 +43663,7 @@
       </c>
       <c r="G1694" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -43692,7 +43692,7 @@
       </c>
       <c r="G1695" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -43721,7 +43721,7 @@
       </c>
       <c r="G1696" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -43750,7 +43750,7 @@
       </c>
       <c r="G1697" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -43779,7 +43779,7 @@
       </c>
       <c r="G1698" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -43808,7 +43808,7 @@
       </c>
       <c r="G1699" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -43837,7 +43837,7 @@
       </c>
       <c r="G1700" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -43924,7 +43924,7 @@
       </c>
       <c r="G1703" t="inlineStr">
         <is>
-          <t>BF,CS</t>
+          <t>CS,BF</t>
         </is>
       </c>
     </row>
@@ -43953,7 +43953,7 @@
       </c>
       <c r="G1704" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -44065,7 +44065,7 @@
       </c>
       <c r="G1708" t="inlineStr">
         <is>
-          <t>BF,CS</t>
+          <t>CS,BF</t>
         </is>
       </c>
     </row>
@@ -44864,7 +44864,7 @@
       </c>
       <c r="G1739" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -45771,7 +45771,7 @@
       </c>
       <c r="G1774" t="inlineStr">
         <is>
-          <t>CA,BF,CS</t>
+          <t>CS,BF,CA</t>
         </is>
       </c>
     </row>
@@ -45800,7 +45800,7 @@
       </c>
       <c r="G1775" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>

--- a/data_processed/20250807/BTCUSDVOLSURFACE_REGULARIZED_20250807.xlsx
+++ b/data_processed/20250807/BTCUSDVOLSURFACE_REGULARIZED_20250807.xlsx
@@ -524,7 +524,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CS,CA,BF</t>
         </is>
       </c>
     </row>
@@ -6785,7 +6785,7 @@
       </c>
       <c r="G244" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CS,CA,BF</t>
         </is>
       </c>
     </row>
@@ -35692,7 +35692,7 @@
       </c>
       <c r="G1387" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CS,CA,BF</t>
         </is>
       </c>
     </row>
@@ -45771,7 +45771,7 @@
       </c>
       <c r="G1774" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CS,CA,BF</t>
         </is>
       </c>
     </row>

--- a/data_processed/20250807/BTCUSDVOLSURFACE_REGULARIZED_20250807.xlsx
+++ b/data_processed/20250807/BTCUSDVOLSURFACE_REGULARIZED_20250807.xlsx
@@ -6420,7 +6420,7 @@
       </c>
       <c r="G231" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -6814,7 +6814,7 @@
       </c>
       <c r="G245" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -12484,7 +12484,7 @@
       </c>
       <c r="G471" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -12542,7 +12542,7 @@
       </c>
       <c r="G473" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -12571,7 +12571,7 @@
       </c>
       <c r="G474" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -12629,7 +12629,7 @@
       </c>
       <c r="G476" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -12658,7 +12658,7 @@
       </c>
       <c r="G477" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -12745,7 +12745,7 @@
       </c>
       <c r="G480" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -18164,7 +18164,7 @@
       </c>
       <c r="G695" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -18251,7 +18251,7 @@
       </c>
       <c r="G698" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -34430,7 +34430,7 @@
       </c>
       <c r="G1341" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -34633,7 +34633,7 @@
       </c>
       <c r="G1348" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -35464,7 +35464,7 @@
       </c>
       <c r="G1379" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -36432,7 +36432,7 @@
       </c>
       <c r="G1415" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -40495,7 +40495,7 @@
       </c>
       <c r="G1570" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -40636,7 +40636,7 @@
       </c>
       <c r="G1575" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -43605,7 +43605,7 @@
       </c>
       <c r="G1692" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -44864,7 +44864,7 @@
       </c>
       <c r="G1739" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -45800,7 +45800,7 @@
       </c>
       <c r="G1775" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
